--- a/demo/Results_chocolate/Distance/Statistics.xlsx
+++ b/demo/Results_chocolate/Distance/Statistics.xlsx
@@ -186,13 +186,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>6.4049622804131872</v>
+        <v>6.4049622804043214</v>
       </c>
       <c r="D2" s="0">
-        <v>6.3543604245414471</v>
+        <v>6.3543604245139527</v>
       </c>
       <c r="E2" s="0">
-        <v>6.4559670954573036</v>
+        <v>6.4559670954673658</v>
       </c>
       <c r="F2" s="0">
         <v>148</v>
@@ -201,10 +201,10 @@
         <v>6.4121717987364857</v>
       </c>
       <c r="H2" s="0">
-        <v>0.30439354425456205</v>
+        <v>0.30439354425456244</v>
       </c>
       <c r="I2" s="0">
-        <v>0.025020995208869232</v>
+        <v>0.025020995208869579</v>
       </c>
       <c r="J2" s="0">
         <v>6.4195765219999998</v>
@@ -230,13 +230,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>6.4033185758411477</v>
+        <v>6.4033185758322837</v>
       </c>
       <c r="D3" s="0">
-        <v>6.352724666721036</v>
+        <v>6.3527246666935531</v>
       </c>
       <c r="E3" s="0">
-        <v>6.4543154213034351</v>
+        <v>6.4543154213134883</v>
       </c>
       <c r="F3" s="0">
         <v>148</v>
@@ -245,10 +245,10 @@
         <v>6.4008627016621622</v>
       </c>
       <c r="H3" s="0">
-        <v>0.30421548608225651</v>
+        <v>0.30421548608225635</v>
       </c>
       <c r="I3" s="0">
-        <v>0.025006358917264996</v>
+        <v>0.025006358917265104</v>
       </c>
       <c r="J3" s="0">
         <v>6.4042741164999999</v>
@@ -274,13 +274,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="0">
-        <v>7.7805954197478391</v>
+        <v>7.7805954197490621</v>
       </c>
       <c r="D4" s="0">
-        <v>7.7055035380532004</v>
+        <v>7.705503538026667</v>
       </c>
       <c r="E4" s="0">
-        <v>7.8564190888809735</v>
+        <v>7.8564190889104975</v>
       </c>
       <c r="F4" s="0">
         <v>99</v>
@@ -289,10 +289,10 @@
         <v>7.7908388779191915</v>
       </c>
       <c r="H4" s="0">
-        <v>0.40153737786211341</v>
+        <v>0.4015373778621143</v>
       </c>
       <c r="I4" s="0">
-        <v>0.040356024899145117</v>
+        <v>0.040356024899145027</v>
       </c>
       <c r="J4" s="0">
         <v>7.7940105600000003</v>
@@ -318,13 +318,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="0">
-        <v>7.7903587737162141</v>
+        <v>7.7903587737174389</v>
       </c>
       <c r="D5" s="0">
-        <v>7.7151726641917531</v>
+        <v>7.7151726641651859</v>
       </c>
       <c r="E5" s="0">
-        <v>7.866277588950771</v>
+        <v>7.8662775889803314</v>
       </c>
       <c r="F5" s="0">
         <v>99</v>
@@ -333,10 +333,10 @@
         <v>7.800643225494948</v>
       </c>
       <c r="H5" s="0">
-        <v>0.40273988165626112</v>
+        <v>0.4027398816562604</v>
       </c>
       <c r="I5" s="0">
-        <v>0.040476881077756231</v>
+        <v>0.040476881077756488</v>
       </c>
       <c r="J5" s="0">
         <v>7.7882664259999999</v>
